--- a/ArticleManage/main_working_folder/output_folders/Data 16 Activated carbon from municipal/Data16_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 16 Activated carbon from municipal/Data16_all_graphs_excel.xlsx
@@ -5,9 +5,9 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 4 AC1  0-1-0-400 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 4 D-AC  0-1-0-400 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 4 W-AC  0-1-0-400 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 4 AC1  0&amp;1&amp;0&amp;400 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 4 D-AC  0&amp;1&amp;0&amp;400 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 4 W-AC  0&amp;1&amp;0&amp;400 " sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -164,12 +164,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 AC1  0-1-0-400 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4 AC1  0&amp;1&amp;0&amp;400 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 AC1  0-1-0-400 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4 AC1  0&amp;1&amp;0&amp;400 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -478,12 +478,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 D-AC  0-1-0-400 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4 D-AC  0&amp;1&amp;0&amp;400 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 D-AC  0-1-0-400 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4 D-AC  0&amp;1&amp;0&amp;400 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -792,12 +792,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 W-AC  0-1-0-400 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4 W-AC  0&amp;1&amp;0&amp;400 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 W-AC  0-1-0-400 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4 W-AC  0&amp;1&amp;0&amp;400 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>

--- a/ArticleManage/main_working_folder/output_folders/Data 16 Activated carbon from municipal/Data16_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 16 Activated carbon from municipal/Data16_all_graphs_excel.xlsx
@@ -8,13 +8,17 @@
     <sheet name="Figure 4 AC1  0&amp;1&amp;0&amp;400 " sheetId="1" r:id="rId1"/>
     <sheet name="Figure 4 D-AC  0&amp;1&amp;0&amp;400 " sheetId="2" r:id="rId4"/>
     <sheet name="Figure 4 W-AC  0&amp;1&amp;0&amp;400 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 6 AC1  0&amp;1&amp;0&amp;600 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 6 D-AC  0&amp;1&amp;0&amp;600 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 6 n_AC1  0&amp;1&amp;0&amp;600 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 6 n_AC2  0&amp;1&amp;0&amp;600 " sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>AC1</t>
   </si>
@@ -29,6 +33,12 @@
   </si>
   <si>
     <t>W-AC</t>
+  </si>
+  <si>
+    <t>n_AC1</t>
+  </si>
+  <si>
+    <t>n_AC2</t>
   </si>
 </sst>
 </file>
@@ -1014,6 +1024,1262 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki AC1 z wykresu 'Figure 6' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 6 AC1  0&amp;1&amp;0&amp;600 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 6 AC1  0&amp;1&amp;0&amp;600 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki D-AC z wykresu 'Figure 6' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 6 D-AC  0&amp;1&amp;0&amp;600 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 6 D-AC  0&amp;1&amp;0&amp;600 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki n_AC1 z wykresu 'Figure 6' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 6 n_AC1  0&amp;1&amp;0&amp;600 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 6 n_AC1  0&amp;1&amp;0&amp;600 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki n_AC2 z wykresu 'Figure 6' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 6 n_AC2  0&amp;1&amp;0&amp;600 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 6 n_AC2  0&amp;1&amp;0&amp;600 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1134,6 +2400,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
@@ -2177,6 +3603,2090 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2785,6 +6295,146 @@
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3099,7 +6749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3120,293 +6770,197 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.24</v>
+        <v>0.0018</v>
       </c>
       <c r="B3" s="0">
-        <v>115.3655</v>
+        <v>4.936</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.28</v>
+        <v>0.0008</v>
       </c>
       <c r="B4" s="0">
-        <v>118.4331</v>
+        <v>21.0538</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.32</v>
+        <v>0.0006</v>
       </c>
       <c r="B5" s="0">
-        <v>120.8593</v>
+        <v>46.0536</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.36</v>
+        <v>0.0059</v>
       </c>
       <c r="B6" s="0">
-        <v>123.3156</v>
+        <v>78.9519</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.4</v>
+        <v>0.0354</v>
       </c>
       <c r="B7" s="0">
-        <v>126.8147</v>
+        <v>96.0765</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.44</v>
+        <v>0.064</v>
       </c>
       <c r="B8" s="0">
-        <v>130.8318</v>
+        <v>101.0296</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.48</v>
+        <v>0.0806</v>
       </c>
       <c r="B9" s="0">
-        <v>134.6276</v>
+        <v>103.6721</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.52</v>
+        <v>0.1009</v>
       </c>
       <c r="B10" s="0">
-        <v>137.7324</v>
+        <v>105.3302</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.56</v>
+        <v>0.149</v>
       </c>
       <c r="B11" s="0">
-        <v>141.0795</v>
+        <v>109.967</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.6</v>
+        <v>0.2053</v>
       </c>
       <c r="B12" s="0">
-        <v>144.9893</v>
+        <v>114.6094</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.64</v>
+        <v>0.2644</v>
       </c>
       <c r="B13" s="0">
-        <v>149.2045</v>
+        <v>119.2535</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.68</v>
+        <v>0.3263</v>
       </c>
       <c r="B14" s="0">
-        <v>153.7635</v>
+        <v>123.8995</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.72</v>
+        <v>0.3882</v>
       </c>
       <c r="B15" s="0">
-        <v>157.3336</v>
+        <v>128.5455</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.1929</v>
+        <v>0.4501</v>
       </c>
       <c r="B16" s="0">
-        <v>112.5617</v>
+        <v>132.8625</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.1726</v>
+        <v>0.5157</v>
       </c>
       <c r="B17" s="0">
-        <v>111.62</v>
+        <v>137.5109</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.1523</v>
+        <v>0.5776</v>
       </c>
       <c r="B18" s="0">
-        <v>109.7733</v>
+        <v>142.1569</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.1294</v>
+        <v>0.6385</v>
       </c>
       <c r="B19" s="0">
-        <v>107.922</v>
+        <v>148.447</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.099</v>
+        <v>0.6986</v>
       </c>
       <c r="B20" s="0">
-        <v>104.247</v>
+        <v>154.7365</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.066</v>
+        <v>0.7604</v>
       </c>
       <c r="B21" s="0">
-        <v>101.4723</v>
+        <v>162.343</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.0406</v>
+        <v>0.8177</v>
       </c>
       <c r="B22" s="0">
-        <v>95.9965</v>
+        <v>169.9464</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.0076</v>
+        <v>0.8758</v>
       </c>
       <c r="B23" s="0">
-        <v>78.7422</v>
+        <v>181.4979</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0025</v>
+        <v>0.9321</v>
       </c>
       <c r="B24" s="0">
-        <v>46.1538</v>
+        <v>197.9822</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0025</v>
+        <v>0.9837</v>
       </c>
       <c r="B25" s="0">
-        <v>19.9095</v>
+        <v>221.3714</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0025</v>
+        <v>0.9991</v>
       </c>
       <c r="B26" s="0">
-        <v>3.6199</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.764</v>
-      </c>
-      <c r="B27" s="0">
-        <v>163.3691</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.7944</v>
-      </c>
-      <c r="B28" s="0">
-        <v>167.0441</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.8198</v>
-      </c>
-      <c r="B29" s="0">
-        <v>171.6149</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.8477</v>
-      </c>
-      <c r="B30" s="0">
-        <v>176.1904</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.8782</v>
-      </c>
-      <c r="B31" s="0">
-        <v>182.5803</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.8985</v>
-      </c>
-      <c r="B32" s="0">
-        <v>188.0469</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.9137</v>
-      </c>
-      <c r="B33" s="0">
-        <v>193.5044</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.934</v>
-      </c>
-      <c r="B34" s="0">
-        <v>199.876</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.9543</v>
-      </c>
-      <c r="B35" s="0">
-        <v>206.2476</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.9645</v>
-      </c>
-      <c r="B36" s="0">
-        <v>213.5058</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.9822</v>
-      </c>
-      <c r="B37" s="0">
-        <v>222.5877</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>1</v>
-      </c>
-      <c r="B38" s="0">
-        <v>267.8687</v>
-      </c>
-    </row>
-    <row r="39"/>
+        <v>266.7763</v>
+      </c>
+    </row>
+    <row r="27"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -3415,7 +6969,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3436,253 +6990,189 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0701</v>
+        <v>0.0004</v>
       </c>
       <c r="B3" s="0">
-        <v>169.2988</v>
+        <v>71.3825</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.4206</v>
+        <v>0.0002</v>
       </c>
       <c r="B4" s="0">
-        <v>206.5124</v>
+        <v>106.9086</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.5519</v>
+        <v>0.0092</v>
       </c>
       <c r="B5" s="0">
-        <v>217.827</v>
+        <v>142.7698</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.6061</v>
+        <v>0.0395</v>
       </c>
       <c r="B6" s="0">
-        <v>223.9079</v>
+        <v>161.8687</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.6549</v>
+        <v>0.0654</v>
       </c>
       <c r="B7" s="0">
-        <v>229.8714</v>
+        <v>168.4647</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.732</v>
+        <v>0.0792</v>
       </c>
       <c r="B8" s="0">
-        <v>240.7541</v>
+        <v>170.1185</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.7848</v>
+        <v>0.1014</v>
       </c>
       <c r="B9" s="0">
-        <v>250.3399</v>
+        <v>174.0805</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.9111</v>
+        <v>0.1448</v>
       </c>
       <c r="B10" s="0">
-        <v>279.0044</v>
+        <v>180.359</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.946</v>
+        <v>0.202</v>
       </c>
       <c r="B11" s="0">
-        <v>293.9621</v>
+        <v>185.002</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.5127</v>
+        <v>0.2593</v>
       </c>
       <c r="B12" s="0">
-        <v>214.498</v>
+        <v>190.9607</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.5787</v>
+        <v>0.3212</v>
       </c>
       <c r="B13" s="0">
-        <v>220.9523</v>
+        <v>197.2514</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.6396</v>
+        <v>0.3886</v>
       </c>
       <c r="B14" s="0">
-        <v>227.3974</v>
+        <v>201.901</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.698</v>
+        <v>0.4505</v>
       </c>
       <c r="B15" s="0">
-        <v>235.6478</v>
+        <v>207.8628</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.7589</v>
+        <v>0.5115</v>
       </c>
       <c r="B16" s="0">
-        <v>244.8079</v>
+        <v>214.1529</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.835</v>
+        <v>0.577</v>
       </c>
       <c r="B17" s="0">
-        <v>258.5203</v>
+        <v>220.1171</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.8147</v>
+        <v>0.638</v>
       </c>
       <c r="B18" s="0">
-        <v>254.8637</v>
+        <v>226.7361</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.8782</v>
+        <v>0.6952</v>
       </c>
       <c r="B19" s="0">
-        <v>268.5532</v>
+        <v>234.3396</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.934</v>
+        <v>0.7562</v>
       </c>
       <c r="B20" s="0">
-        <v>286.7538</v>
+        <v>243.5902</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.9797</v>
+        <v>0.8134</v>
       </c>
       <c r="B21" s="0">
-        <v>312.1759</v>
+        <v>254.4831</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>1</v>
+        <v>0.8752</v>
       </c>
       <c r="B22" s="0">
-        <v>355.6515</v>
+        <v>267.0238</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.0102</v>
+        <v>0.9324</v>
       </c>
       <c r="B23" s="0">
-        <v>143.0002</v>
+        <v>286.1403</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0025</v>
+        <v>0.9766</v>
       </c>
       <c r="B24" s="0">
-        <v>106.7873</v>
+        <v>310.8405</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0025</v>
+        <v>0.9975</v>
       </c>
       <c r="B25" s="0">
-        <v>70.5882</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.0406</v>
-      </c>
-      <c r="B26" s="0">
-        <v>161.1549</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.1041</v>
-      </c>
-      <c r="B27" s="0">
-        <v>174.8444</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.1472</v>
-      </c>
-      <c r="B28" s="0">
-        <v>180.3523</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.2056</v>
-      </c>
-      <c r="B29" s="0">
-        <v>184.9829</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.2614</v>
-      </c>
-      <c r="B30" s="0">
-        <v>191.4188</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.3249</v>
-      </c>
-      <c r="B31" s="0">
-        <v>196.9635</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.3883</v>
-      </c>
-      <c r="B32" s="0">
-        <v>202.5082</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.4518</v>
-      </c>
-      <c r="B33" s="0">
-        <v>208.9579</v>
-      </c>
-    </row>
-    <row r="34"/>
+        <v>355.2621</v>
+      </c>
+    </row>
+    <row r="26"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -3691,7 +7181,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3712,221 +7202,1045 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1.0025</v>
+        <v>-0.0003</v>
       </c>
       <c r="B3" s="0">
-        <v>296.8326</v>
+        <v>38.4873</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.967</v>
+        <v>0.0014</v>
       </c>
       <c r="B4" s="0">
-        <v>284.0986</v>
+        <v>60.5279</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9036</v>
+        <v>0</v>
       </c>
       <c r="B5" s="0">
-        <v>281.2688</v>
+        <v>128.2901</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8452</v>
+        <v>-0.001</v>
       </c>
       <c r="B6" s="0">
-        <v>281.1631</v>
+        <v>150.3289</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.7817</v>
+        <v>0.0007</v>
       </c>
       <c r="B7" s="0">
-        <v>277.4284</v>
+        <v>171.7116</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.7183</v>
+        <v>0.0005</v>
       </c>
       <c r="B8" s="0">
-        <v>275.5036</v>
+        <v>195.0667</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.6574</v>
+        <v>0.005</v>
       </c>
       <c r="B9" s="0">
-        <v>274.4884</v>
+        <v>215.1355</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.5914</v>
+        <v>0.0178</v>
       </c>
       <c r="B10" s="0">
-        <v>272.559</v>
+        <v>232.2492</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.5279</v>
+        <v>0.0399</v>
       </c>
       <c r="B11" s="0">
-        <v>270.6342</v>
+        <v>243.7769</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.4645</v>
+        <v>0.063</v>
       </c>
       <c r="B12" s="0">
-        <v>269.6144</v>
+        <v>251.0289</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.401</v>
+        <v>0.0768</v>
       </c>
       <c r="B13" s="0">
-        <v>267.6896</v>
+        <v>253.0117</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.335</v>
+        <v>0.0943</v>
       </c>
       <c r="B14" s="0">
-        <v>267.5701</v>
+        <v>255.3258</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.269</v>
+        <v>0.1054</v>
       </c>
       <c r="B15" s="0">
-        <v>265.6407</v>
+        <v>255.6621</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2081</v>
+        <v>0.1489</v>
       </c>
       <c r="B16" s="0">
-        <v>262.8155</v>
+        <v>258.6512</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.1523</v>
+        <v>0.2061</v>
       </c>
       <c r="B17" s="0">
-        <v>259.9995</v>
+        <v>261.9783</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.1066</v>
+        <v>0.269</v>
       </c>
       <c r="B18" s="0">
-        <v>256.2969</v>
+        <v>263.3355</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.0939</v>
+        <v>0.3336</v>
       </c>
       <c r="B19" s="0">
-        <v>256.274</v>
+        <v>266.9964</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.0812</v>
+        <v>0.3974</v>
       </c>
       <c r="B20" s="0">
-        <v>254.4411</v>
+        <v>266.7094</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.0685</v>
+        <v>0.4593</v>
       </c>
       <c r="B21" s="0">
-        <v>253.5131</v>
+        <v>267.737</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.0457</v>
+        <v>0.524</v>
       </c>
       <c r="B22" s="0">
-        <v>244.422</v>
+        <v>269.4243</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.0203</v>
+        <v>0.5905</v>
       </c>
       <c r="B23" s="0">
-        <v>232.6113</v>
+        <v>270.7839</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0051</v>
+        <v>0.6552</v>
       </c>
       <c r="B24" s="0">
-        <v>215.3892</v>
+        <v>272.8001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0025</v>
+        <v>0.7171</v>
       </c>
       <c r="B25" s="0">
-        <v>195.4751</v>
+        <v>273.8277</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0025</v>
+        <v>0.779</v>
       </c>
       <c r="B26" s="0">
-        <v>171.9457</v>
+        <v>275.5131</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0025</v>
+        <v>0.841</v>
       </c>
       <c r="B27" s="0">
-        <v>150.2262</v>
+        <v>278.5144</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0025</v>
+        <v>0.9019</v>
       </c>
       <c r="B28" s="0">
-        <v>129.4118</v>
+        <v>280.1993</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0025</v>
+        <v>0.9648</v>
       </c>
       <c r="B29" s="0">
-        <v>60.6335</v>
-      </c>
-    </row>
-    <row r="30"/>
+        <v>283.5301</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.9989</v>
+      </c>
+      <c r="B30" s="0">
+        <v>296.0525</v>
+      </c>
+    </row>
+    <row r="31"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0</v>
+      </c>
+      <c r="B3" s="0">
+        <v>3.9184</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0001</v>
+      </c>
+      <c r="B4" s="0">
+        <v>21.0612</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0001</v>
+      </c>
+      <c r="B5" s="0">
+        <v>44.5714</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.0048</v>
+      </c>
+      <c r="B6" s="0">
+        <v>77.8776</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.036</v>
+      </c>
+      <c r="B7" s="0">
+        <v>96.9796</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.0598</v>
+      </c>
+      <c r="B8" s="0">
+        <v>101.8776</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.08</v>
+      </c>
+      <c r="B9" s="0">
+        <v>103.8367</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.1001</v>
+      </c>
+      <c r="B10" s="0">
+        <v>106.2857</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.1496</v>
+      </c>
+      <c r="B11" s="0">
+        <v>111.1837</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.2064</v>
+      </c>
+      <c r="B12" s="0">
+        <v>115.102</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.2632</v>
+      </c>
+      <c r="B13" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.3245</v>
+      </c>
+      <c r="B14" s="0">
+        <v>122.449</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.3859</v>
+      </c>
+      <c r="B15" s="0">
+        <v>126.8571</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.4482</v>
+      </c>
+      <c r="B16" s="0">
+        <v>131.7551</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.5132</v>
+      </c>
+      <c r="B17" s="0">
+        <v>137.1429</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.5746</v>
+      </c>
+      <c r="B18" s="0">
+        <v>143.5102</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.6369</v>
+      </c>
+      <c r="B19" s="0">
+        <v>148.4082</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.6974</v>
+      </c>
+      <c r="B20" s="0">
+        <v>154.7755</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.7597</v>
+      </c>
+      <c r="B21" s="0">
+        <v>162.1224</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.8183</v>
+      </c>
+      <c r="B22" s="0">
+        <v>170.9388</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.8751</v>
+      </c>
+      <c r="B23" s="0">
+        <v>183.6735</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.9338</v>
+      </c>
+      <c r="B24" s="0">
+        <v>197.3878</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.9814</v>
+      </c>
+      <c r="B25" s="0">
+        <v>223.3469</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.999</v>
+      </c>
+      <c r="B26" s="0">
+        <v>268.4082</v>
+      </c>
+    </row>
+    <row r="27"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.0011</v>
+      </c>
+      <c r="B3" s="0">
+        <v>69.0612</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>-0.0006</v>
+      </c>
+      <c r="B4" s="0">
+        <v>105.7959</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0087</v>
+      </c>
+      <c r="B5" s="0">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.039</v>
+      </c>
+      <c r="B6" s="0">
+        <v>162.1224</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.0655</v>
+      </c>
+      <c r="B7" s="0">
+        <v>167.5102</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.0875</v>
+      </c>
+      <c r="B8" s="0">
+        <v>171.9184</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.1013</v>
+      </c>
+      <c r="B9" s="0">
+        <v>174.3673</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.1443</v>
+      </c>
+      <c r="B10" s="0">
+        <v>179.2653</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.2011</v>
+      </c>
+      <c r="B11" s="0">
+        <v>186.1224</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.2588</v>
+      </c>
+      <c r="B12" s="0">
+        <v>190.5306</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.3193</v>
+      </c>
+      <c r="B13" s="0">
+        <v>197.3878</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.3852</v>
+      </c>
+      <c r="B14" s="0">
+        <v>202.2857</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.4466</v>
+      </c>
+      <c r="B15" s="0">
+        <v>209.1429</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.5089</v>
+      </c>
+      <c r="B16" s="0">
+        <v>214.0408</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.5739</v>
+      </c>
+      <c r="B17" s="0">
+        <v>220.898</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.6362</v>
+      </c>
+      <c r="B18" s="0">
+        <v>226.2857</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.693</v>
+      </c>
+      <c r="B19" s="0">
+        <v>235.5918</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.7544</v>
+      </c>
+      <c r="B20" s="0">
+        <v>244.898</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.8131</v>
+      </c>
+      <c r="B21" s="0">
+        <v>256.6531</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.8754</v>
+      </c>
+      <c r="B22" s="0">
+        <v>268.4082</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.9331</v>
+      </c>
+      <c r="B23" s="0">
+        <v>287.0204</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.9762</v>
+      </c>
+      <c r="B24" s="0">
+        <v>313.4694</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.9974</v>
+      </c>
+      <c r="B25" s="0">
+        <v>354.6122</v>
+      </c>
+    </row>
+    <row r="26"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>-0.0014</v>
+      </c>
+      <c r="B3" s="0">
+        <v>128.8163</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.007</v>
+      </c>
+      <c r="B4" s="0">
+        <v>183.1837</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0089</v>
+      </c>
+      <c r="B5" s="0">
+        <v>216.9796</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.0666</v>
+      </c>
+      <c r="B6" s="0">
+        <v>229.7143</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.074</v>
+      </c>
+      <c r="B7" s="0">
+        <v>234.1224</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.0886</v>
+      </c>
+      <c r="B8" s="0">
+        <v>239.5102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.1024</v>
+      </c>
+      <c r="B9" s="0">
+        <v>241.9592</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.15</v>
+      </c>
+      <c r="B10" s="0">
+        <v>250.7755</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.2068</v>
+      </c>
+      <c r="B11" s="0">
+        <v>260.0816</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.2682</v>
+      </c>
+      <c r="B12" s="0">
+        <v>266.449</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.3323</v>
+      </c>
+      <c r="B13" s="0">
+        <v>274.2857</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.3946</v>
+      </c>
+      <c r="B14" s="0">
+        <v>280.6531</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.456</v>
+      </c>
+      <c r="B15" s="0">
+        <v>285.0612</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.522</v>
+      </c>
+      <c r="B16" s="0">
+        <v>294.8571</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.5824</v>
+      </c>
+      <c r="B17" s="0">
+        <v>302.2041</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.7061</v>
+      </c>
+      <c r="B18" s="0">
+        <v>320.8163</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.7693</v>
+      </c>
+      <c r="B19" s="0">
+        <v>333.0612</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.8958</v>
+      </c>
+      <c r="B20" s="0">
+        <v>358.5306</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.9544</v>
+      </c>
+      <c r="B21" s="0">
+        <v>377.1429</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.9985</v>
+      </c>
+      <c r="B22" s="0">
+        <v>410.449</v>
+      </c>
+    </row>
+    <row r="23"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.0253</v>
+      </c>
+      <c r="B3" s="0">
+        <v>178.7755</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.05</v>
+      </c>
+      <c r="B4" s="0">
+        <v>189.0612</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0748</v>
+      </c>
+      <c r="B5" s="0">
+        <v>197.8776</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.0885</v>
+      </c>
+      <c r="B6" s="0">
+        <v>202.7755</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.1023</v>
+      </c>
+      <c r="B7" s="0">
+        <v>204.7347</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.1499</v>
+      </c>
+      <c r="B8" s="0">
+        <v>214.5306</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.2058</v>
+      </c>
+      <c r="B9" s="0">
+        <v>223.3469</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.2672</v>
+      </c>
+      <c r="B10" s="0">
+        <v>230.6939</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.3231</v>
+      </c>
+      <c r="B11" s="0">
+        <v>240.4898</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.3854</v>
+      </c>
+      <c r="B12" s="0">
+        <v>249.3061</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.4504</v>
+      </c>
+      <c r="B13" s="0">
+        <v>258.6122</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.5173</v>
+      </c>
+      <c r="B14" s="0">
+        <v>268.4082</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.5778</v>
+      </c>
+      <c r="B15" s="0">
+        <v>279.6735</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.6401</v>
+      </c>
+      <c r="B16" s="0">
+        <v>291.4286</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.6978</v>
+      </c>
+      <c r="B17" s="0">
+        <v>305.1429</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.7638</v>
+      </c>
+      <c r="B18" s="0">
+        <v>318.8571</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.8215</v>
+      </c>
+      <c r="B19" s="0">
+        <v>338.449</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.8793</v>
+      </c>
+      <c r="B20" s="0">
+        <v>360.9796</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.938</v>
+      </c>
+      <c r="B21" s="0">
+        <v>391.8367</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.9812</v>
+      </c>
+      <c r="B22" s="0">
+        <v>441.3061</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.9979</v>
+      </c>
+      <c r="B23" s="0">
+        <v>524.0816</v>
+      </c>
+    </row>
+    <row r="24"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
